--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3288648.050032598</v>
+        <v>3290408.580335383</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8129766.385517256</v>
+        <v>8129766.385517255</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="V2" t="n">
-        <v>63.93308893378777</v>
+        <v>191.4298910353889</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>11.60347536211213</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>46.58246887584009</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415049</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>139.2735751258539</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>49.44698094210916</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>290.2905114143462</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2905114143477</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>290.2905114143477</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143477</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430064</v>
+        <v>248.8118367120447</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157313</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>290.2905114143462</v>
       </c>
       <c r="W5" t="n">
-        <v>92.27378836372549</v>
+        <v>290.2905114143462</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790342</v>
+        <v>15.09724236790359</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>145.597217338411</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>116.3784374999802</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>120.6586327069412</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.15545075340513</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>257.1186549717464</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>196.5650454946194</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>94.82810169648936</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>120.3332554667399</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>50.98074812542808</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>167.1115298725988</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>108.3613954702483</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>85.08368458989422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>40.15381658332819</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176199</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176199</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695169</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.7518808581192</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701331</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>95.12712756824082</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856556</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695399</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428081</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>100.4057322893105</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187824</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457614</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788178539</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695169</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788178581</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428084</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>281.4077649716771</v>
+        <v>523.6380156196612</v>
       </c>
       <c r="C2" t="n">
-        <v>281.4077649716771</v>
+        <v>523.6380156196612</v>
       </c>
       <c r="D2" t="n">
-        <v>39.17751432369235</v>
+        <v>281.4077649716768</v>
       </c>
       <c r="E2" t="n">
-        <v>39.17751432369235</v>
+        <v>39.17751432369234</v>
       </c>
       <c r="F2" t="n">
-        <v>32.23201357448887</v>
+        <v>32.23201357448886</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470325</v>
+        <v>40.41888584470354</v>
       </c>
       <c r="K2" t="n">
         <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605486</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859561</v>
+        <v>449.0101090859556</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779382</v>
+        <v>643.3443219779376</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948976</v>
+        <v>813.5133472948972</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444243</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660193</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628474</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T2" t="n">
-        <v>588.2168933305585</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="U2" t="n">
-        <v>345.9866426825738</v>
+        <v>717.0015419180339</v>
       </c>
       <c r="V2" t="n">
-        <v>281.4077649716771</v>
+        <v>523.6380156196612</v>
       </c>
       <c r="W2" t="n">
-        <v>281.4077649716771</v>
+        <v>523.6380156196612</v>
       </c>
       <c r="X2" t="n">
-        <v>281.4077649716771</v>
+        <v>523.6380156196612</v>
       </c>
       <c r="Y2" t="n">
-        <v>281.4077649716771</v>
+        <v>523.6380156196612</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.18463585132039</v>
+        <v>354.2927569776503</v>
       </c>
       <c r="C3" t="n">
-        <v>19.18463585132039</v>
+        <v>179.8397276965233</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18463585132039</v>
+        <v>30.90531803527202</v>
       </c>
       <c r="E3" t="n">
-        <v>19.18463585132039</v>
+        <v>30.90531803527202</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467734</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303712</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849759</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>602.1761315376405</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>761.688444206401</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>870.3780717336997</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660194</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660194</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="T3" t="n">
-        <v>959.2317925660194</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="U3" t="n">
-        <v>912.1787937015345</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="V3" t="n">
-        <v>677.0266854697918</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="W3" t="n">
-        <v>434.7964348218071</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="X3" t="n">
-        <v>226.9449346162743</v>
+        <v>730.2683927626723</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.18463585132039</v>
+        <v>522.5080939977183</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.8443031961797</v>
+        <v>328.8011976942312</v>
       </c>
       <c r="C4" t="n">
-        <v>337.9081202682727</v>
+        <v>159.8650147663243</v>
       </c>
       <c r="D4" t="n">
-        <v>187.791480855937</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E4" t="n">
-        <v>187.791480855937</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F4" t="n">
-        <v>187.791480855937</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>60.34504070228402</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>245.1780356031023</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>450.4476363223401</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030905</v>
+        <v>656.2710011584443</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916894</v>
+        <v>830.365896547043</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456595</v>
+        <v>955.8134731456586</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R4" t="n">
-        <v>909.2853471699495</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S4" t="n">
-        <v>909.2853471699495</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T4" t="n">
-        <v>909.2853471699495</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="U4" t="n">
-        <v>909.2853471699495</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="V4" t="n">
-        <v>909.2853471699495</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="W4" t="n">
-        <v>909.2853471699495</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="X4" t="n">
-        <v>909.2853471699495</v>
+        <v>731.242241668001</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.4927680264194</v>
+        <v>510.4496625244709</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>915.7623695165256</v>
+        <v>574.716568052645</v>
       </c>
       <c r="C5" t="n">
-        <v>915.7623695165256</v>
+        <v>281.4938292502752</v>
       </c>
       <c r="D5" t="n">
-        <v>622.5396307141541</v>
+        <v>281.4938292502752</v>
       </c>
       <c r="E5" t="n">
-        <v>329.3168919117826</v>
+        <v>281.4938292502752</v>
       </c>
       <c r="F5" t="n">
-        <v>36.0941531094111</v>
+        <v>274.5483285010717</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314782</v>
+        <v>23.22324091314769</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314782</v>
+        <v>23.22324091314769</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314782</v>
+        <v>23.22324091314769</v>
       </c>
       <c r="J5" t="n">
-        <v>59.1367338295197</v>
+        <v>59.13673382951959</v>
       </c>
       <c r="K5" t="n">
-        <v>163.700268344496</v>
+        <v>163.7002683444952</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084646</v>
+        <v>330.3223409084629</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162878</v>
+        <v>547.3909387162852</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537064</v>
+        <v>772.5857417537025</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416937</v>
+        <v>971.895547241689</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171416</v>
+        <v>1107.50085417141</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657385</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657385</v>
       </c>
       <c r="S5" t="n">
-        <v>1008.968216348572</v>
+        <v>1161.162045657385</v>
       </c>
       <c r="T5" t="n">
-        <v>1008.968216348572</v>
+        <v>1161.162045657385</v>
       </c>
       <c r="U5" t="n">
-        <v>1008.968216348572</v>
+        <v>1161.162045657385</v>
       </c>
       <c r="V5" t="n">
-        <v>1008.968216348572</v>
+        <v>867.9393068550148</v>
       </c>
       <c r="W5" t="n">
-        <v>915.7623695165256</v>
+        <v>574.716568052645</v>
       </c>
       <c r="X5" t="n">
-        <v>915.7623695165256</v>
+        <v>574.716568052645</v>
       </c>
       <c r="Y5" t="n">
-        <v>915.7623695165256</v>
+        <v>574.716568052645</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>328.9952538917183</v>
+        <v>652.3826928340965</v>
       </c>
       <c r="C6" t="n">
-        <v>328.9952538917183</v>
+        <v>477.9296635529695</v>
       </c>
       <c r="D6" t="n">
-        <v>328.9952538917183</v>
+        <v>328.9952538917182</v>
       </c>
       <c r="E6" t="n">
-        <v>169.7577988862628</v>
+        <v>169.7577988862627</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314782</v>
+        <v>23.22324091314769</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314782</v>
+        <v>23.22324091314769</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314782</v>
+        <v>23.22324091314769</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314782</v>
+        <v>23.22324091314769</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508951</v>
+        <v>25.79522430508913</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063298</v>
+        <v>108.345978306329</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119418</v>
+        <v>265.6681956119404</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702546</v>
+        <v>468.6126709702526</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269158</v>
+        <v>691.3371276269131</v>
       </c>
       <c r="O6" t="n">
-        <v>872.8666975145469</v>
+        <v>872.8666975145436</v>
       </c>
       <c r="P6" t="n">
-        <v>999.2271150356737</v>
+        <v>999.2271150356698</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657391</v>
+        <v>1161.162045657385</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891832</v>
+        <v>1145.912305891826</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891832</v>
+        <v>1145.912305891826</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.912305891832</v>
+        <v>1145.912305891826</v>
       </c>
       <c r="U6" t="n">
-        <v>1145.912305891832</v>
+        <v>1145.912305891826</v>
       </c>
       <c r="V6" t="n">
-        <v>998.8444095904067</v>
+        <v>1145.912305891826</v>
       </c>
       <c r="W6" t="n">
-        <v>744.6070528622051</v>
+        <v>1028.358328619118</v>
       </c>
       <c r="X6" t="n">
-        <v>536.7555526566723</v>
+        <v>1028.358328619118</v>
       </c>
       <c r="Y6" t="n">
-        <v>328.9952538917183</v>
+        <v>820.5980298541645</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>464.1534700280786</v>
+        <v>204.4376569253022</v>
       </c>
       <c r="C7" t="n">
-        <v>295.2172871001717</v>
+        <v>35.5014739973953</v>
       </c>
       <c r="D7" t="n">
-        <v>145.100647687836</v>
+        <v>35.5014739973953</v>
       </c>
       <c r="E7" t="n">
-        <v>23.22324091314782</v>
+        <v>35.5014739973953</v>
       </c>
       <c r="F7" t="n">
-        <v>23.22324091314782</v>
+        <v>35.5014739973953</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314782</v>
+        <v>35.5014739973953</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314782</v>
+        <v>35.5014739973953</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314782</v>
+        <v>35.5014739973953</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314782</v>
+        <v>23.22324091314769</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279151</v>
+        <v>133.2846894279147</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993047</v>
+        <v>329.6518852993039</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837277</v>
+        <v>547.0826837276988</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730513</v>
+        <v>764.7780801730498</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967879</v>
+        <v>949.8387182967861</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.66938219591</v>
+        <v>1084.669382195908</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899864</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899864</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899864</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899864</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899866</v>
+        <v>834.8682517970893</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.584064899866</v>
+        <v>834.8682517970893</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.584064899866</v>
+        <v>834.8682517970893</v>
       </c>
       <c r="X7" t="n">
-        <v>866.5945140018484</v>
+        <v>606.878700899072</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.8019348583183</v>
+        <v>386.0861217555419</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.9105847575083</v>
+        <v>1471.210842731383</v>
       </c>
       <c r="C8" t="n">
-        <v>813.9105847575083</v>
+        <v>1471.210842731383</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>1112.945144124633</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>727.1568915263883</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>316.1709867367808</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764998</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2466.55336709057</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.807725696395</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.807725696395</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1926.744838352824</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1573.97618308271</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>1200.51042482163</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1200.51042482163</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756614</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800311</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1584.950414897297</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="11">
@@ -5032,37 +5032,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.7012443408906</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2095.308724111328</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>813.3497091711304</v>
+        <v>806.8386896933887</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474262</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F16" t="n">
-        <v>261.8464821474262</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G16" t="n">
-        <v>261.8464821474262</v>
+        <v>134.3760737382024</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>134.3760737382024</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.528408326419</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,13 +5740,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,46 +5755,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.528408326419</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.528408326419</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5907,55 +5907,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,49 +5971,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6056,31 +6056,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273892</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516139</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,31 +6235,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876679</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876679</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>580.8993044876679</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>580.8993044876679</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602303</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396416</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359455</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614378</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179076</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6442,58 +6442,58 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400703</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270434</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138402</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.50206557031</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2345.543151974895</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2125.941686997836</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1836.866460342034</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.866460342034</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407056</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263526</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551871</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611459</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004709</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406464</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168569</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466569</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612122998</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591804</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615993</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7004,31 +7004,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273892</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516139</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263525</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356184</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232828</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408898</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429797</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578598</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797745</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378159</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172272</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135312</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237295</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093765</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876679</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>411.963121559761</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>411.963121559761</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>411.963121559761</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>411.963121559761</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>244.767022274641</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>103.055191116839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602303</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396416</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359455</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614378</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179076</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,43 +7399,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7478,31 +7478,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273892</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516139</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188007</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490404</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551871</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611459</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004709</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168575</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591805</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615993</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7715,31 +7715,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273892</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516139</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400703</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270434</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138402</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.50206557031</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928426</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.78462588923516</v>
+        <v>66.78462588923487</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>46.2513171076363</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>74.51411407702544</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.7423662450677</v>
+        <v>54.74236624506801</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>128.6722568460174</v>
+        <v>128.6722568460152</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>240.4465442417441</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111067</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>50.2939204546895</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>110.2232578818465</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>55.21102825632967</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>41.11201973523735</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="20">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405086</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>50.29392045469042</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194308</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856556</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>80.62055371233414</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891636</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038702</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194314</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194305</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>714701.6910632466</v>
+        <v>714701.6910632465</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>716170.7069461267</v>
+        <v>716170.7069461265</v>
       </c>
     </row>
     <row r="4">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>698273.4890367517</v>
+        <v>698273.4890367516</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>698273.4890367518</v>
+        <v>698273.4890367516</v>
       </c>
     </row>
     <row r="14">
@@ -26316,19 +26316,19 @@
         <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778544</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
@@ -26337,25 +26337,25 @@
         <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800892</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342211084</v>
+        <v>55881.32342210948</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276225</v>
+        <v>363279.8866276242</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.781995812663809e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353605</v>
+        <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440503</v>
+        <v>12992.59634440468</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666225</v>
+        <v>88656.33991666265</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>5.063970992727389e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431034</v>
+        <v>246054.6603431039</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
@@ -26432,31 +26432,31 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.8641468306</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683052</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.8641468307</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683054</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.8641468306</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.7022343733</v>
+        <v>61145.70223437329</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302713</v>
+        <v>65162.40123302701</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26484,13 +26484,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26508,10 +26508,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-235517.3613426338</v>
+        <v>-235517.3613426336</v>
       </c>
       <c r="C6" t="n">
-        <v>371839.2078796134</v>
+        <v>371839.2078796147</v>
       </c>
       <c r="D6" t="n">
-        <v>138768.8398275683</v>
+        <v>138768.8398275666</v>
       </c>
       <c r="E6" t="n">
-        <v>104479.724871365</v>
+        <v>104792.3662002857</v>
       </c>
       <c r="F6" t="n">
-        <v>611965.1664959107</v>
+        <v>612277.8078248323</v>
       </c>
       <c r="G6" t="n">
-        <v>611965.1664959101</v>
+        <v>612277.8078248322</v>
       </c>
       <c r="H6" t="n">
-        <v>611965.1664959106</v>
+        <v>612277.807824832</v>
       </c>
       <c r="I6" t="n">
-        <v>611965.1664959118</v>
+        <v>612277.8078248323</v>
       </c>
       <c r="J6" t="n">
-        <v>549220.8557123748</v>
+        <v>549533.4970412963</v>
       </c>
       <c r="K6" t="n">
-        <v>598972.5701515056</v>
+        <v>599285.2114804274</v>
       </c>
       <c r="L6" t="n">
-        <v>523308.8265792484</v>
+        <v>523621.4679081693</v>
       </c>
       <c r="M6" t="n">
-        <v>479357.872766984</v>
+        <v>479670.5140959057</v>
       </c>
       <c r="N6" t="n">
-        <v>611965.1664959108</v>
+        <v>612277.8078248323</v>
       </c>
       <c r="O6" t="n">
-        <v>611965.1664959108</v>
+        <v>612277.8078248322</v>
       </c>
       <c r="P6" t="n">
-        <v>611965.1664959108</v>
+        <v>612277.807824832</v>
       </c>
     </row>
   </sheetData>
@@ -26709,19 +26709,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.827035323175769e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.268305166733595e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575591</v>
+        <v>636.9329421575578</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26758,28 +26758,28 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143477</v>
+        <v>290.2905114143462</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.277153095923589e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949423</v>
+        <v>43.45684181949321</v>
       </c>
       <c r="D3" t="n">
-        <v>297.13194995998</v>
+        <v>297.1319499599813</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>50.4825632728429</v>
+        <v>50.48256327284155</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856911</v>
+        <v>350.2943206856927</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27026,28 +27026,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.458885117564952e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415052</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.4825632728429</v>
+        <v>50.48256327284155</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856911</v>
+        <v>350.2943206856927</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>50.4825632728429</v>
+        <v>50.48256327284155</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856911</v>
+        <v>350.2943206856927</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791781</v>
+        <v>114.8750934791784</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>142.1224219307572</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079578</v>
+        <v>11.34683808079603</v>
       </c>
       <c r="V2" t="n">
-        <v>263.8191695363471</v>
+        <v>136.322367434746</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>133.4657370312717</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183512</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -27514,13 +27514,13 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>179.2749307381058</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941475</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>9.341897892358503</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -27560,7 +27560,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176901</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>79.72620072568216</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001187</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>74.98238035666139</v>
       </c>
       <c r="D5" t="n">
-        <v>64.39253020633521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>91.63985865791403</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>116.5855343273637</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>163.9303663622559</v>
       </c>
       <c r="H5" t="n">
         <v>313.2517287735718</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401374</v>
+        <v>111.7608855401376</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157314</v>
       </c>
       <c r="T5" t="n">
         <v>211.8871100493787</v>
@@ -27675,10 +27675,10 @@
         <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>37.46174705578875</v>
       </c>
       <c r="W5" t="n">
-        <v>256.9671803536875</v>
+        <v>58.95045730306686</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337434</v>
+        <v>99.00406368337437</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370905</v>
+        <v>42.22754232370914</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.235897424241</v>
+        <v>146.2358974242411</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
@@ -27754,13 +27754,13 @@
         <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>87.20336981101431</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>135.3165456609394</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>25.77532993962792</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197631</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340498</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441976</v>
+        <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153978</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2563802146393</v>
+        <v>29.13772524289288</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>214.9826572783346</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28.62411370230502</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>46.91356563188793</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>235.2464059957725</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.652189661806915e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29283,10 +29283,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.776583478031484e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.35003119794419e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.144685009232491e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29997,10 +29997,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.206412995699793e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.603983612596949e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30222,10 +30222,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.113864638886298e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.652189661806915e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651557</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.486976877902</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074823</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359669</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810515</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182839</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512821</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900652</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947076</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080801</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308315</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897147</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207013</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784129</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490376</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676926</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
         <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104779</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937816</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
         <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522793</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390808</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834406</v>
+        <v>2.560534440834402</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219537</v>
+        <v>26.22307334219532</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026855</v>
+        <v>98.71500403026836</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977694</v>
+        <v>217.322159997769</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782899</v>
+        <v>325.7095828782893</v>
       </c>
       <c r="L5" t="n">
-        <v>404.071538771976</v>
+        <v>404.0715387719752</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341648</v>
+        <v>449.6074431341639</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141856</v>
+        <v>456.8825616141847</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681384</v>
+        <v>431.4212472681376</v>
       </c>
       <c r="P5" t="n">
-        <v>368.208053260039</v>
+        <v>368.2080532600382</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976567</v>
+        <v>276.5089135976561</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690644</v>
+        <v>160.8431715690641</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051409</v>
+        <v>58.34817857051398</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475262</v>
+        <v>11.2087395147526</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667525</v>
+        <v>0.2048427552667521</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772863</v>
+        <v>1.37000670577286</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312213</v>
+        <v>13.2313805531221</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770603</v>
+        <v>47.16909052770594</v>
       </c>
       <c r="J6" t="n">
-        <v>129.43558968883</v>
+        <v>129.4355896888298</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756118</v>
+        <v>221.2260389756114</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916035</v>
+        <v>297.4657103916028</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758697</v>
+        <v>347.128453475869</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264254</v>
+        <v>356.3159107264248</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511425</v>
+        <v>325.9594463511419</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892057</v>
+        <v>261.6111927892052</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316378</v>
+        <v>174.8801542316374</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473971</v>
+        <v>85.06059178473954</v>
       </c>
       <c r="S6" t="n">
-        <v>25.4472736795968</v>
+        <v>25.44727367959675</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479213</v>
+        <v>5.522088432479202</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663575</v>
+        <v>0.09013202011663558</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611992</v>
+        <v>1.148567600611989</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180481</v>
+        <v>10.21181012180479</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749518</v>
+        <v>34.54056020749511</v>
       </c>
       <c r="J7" t="n">
-        <v>81.2037293632678</v>
+        <v>81.20372936326764</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438296</v>
+        <v>133.4426721438293</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400774</v>
+        <v>170.7606776400771</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577506</v>
+        <v>180.0431921577503</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645606</v>
+        <v>175.7621674645603</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846841</v>
+        <v>162.3448095846838</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321994</v>
+        <v>138.9140305321991</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579141</v>
+        <v>96.17687426579123</v>
       </c>
       <c r="R7" t="n">
-        <v>51.6437759329719</v>
+        <v>51.6437759329718</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157443</v>
+        <v>20.01640082157439</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705781</v>
+        <v>4.907516111705772</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156326</v>
+        <v>0.06264914185156313</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>652.047896915769</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>652.047896915769</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705378</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292146</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012657</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.297184739376</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.887904360565</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874004</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130808</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268378</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714079</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>109.787502552827</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.7512331639593</v>
+        <v>89.75123316395896</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>41.57616651612491</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295332</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
         <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>66.22227459996979</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353401</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108312</v>
+        <v>36.27625547108269</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333093</v>
+        <v>105.6197318333087</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019887</v>
+        <v>168.3051238019879</v>
       </c>
       <c r="M5" t="n">
-        <v>219.261209906892</v>
+        <v>219.2612099068912</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175947</v>
+        <v>227.4694980175938</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464517</v>
+        <v>201.3230358464508</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047694</v>
+        <v>136.9750575047687</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320723</v>
+        <v>54.20322372320666</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022163327</v>
+        <v>2.597963022163071</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125283</v>
+        <v>83.38460000125241</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117293</v>
+        <v>158.9113306117287</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538513</v>
+        <v>204.9944195538507</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430921</v>
+        <v>224.9741986430915</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066981</v>
+        <v>183.3632019066974</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748755</v>
+        <v>127.636785374875</v>
       </c>
       <c r="Q6" t="n">
-        <v>163.5706369916336</v>
+        <v>163.5706369916311</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179467</v>
+        <v>111.1731803179464</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003935</v>
+        <v>198.3507029003932</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195912</v>
+        <v>219.6270691195909</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437892</v>
+        <v>219.8943398437889</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987238</v>
+        <v>186.9299374987235</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970929</v>
+        <v>136.1925897970926</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409703</v>
+        <v>10.01483101409684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>538.1269048795942</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35272,10 +35272,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419612</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,16 +35734,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>509.9138629937507</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>509.9138629937507</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
